--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW19.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW19.xlsx
@@ -3219,37 +3219,37 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="F83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="G83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="I83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="K83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
       <c r="L83" t="n">
-        <v>2.4419407888225004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>6.642686845179001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>3.160113159357</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3015083332201667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>4.724299999524001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>2.4306578943500003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.333347368368</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>1.3521052636</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.6032500000316666</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="C299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="G299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="I299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="J299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="K299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.29212500012666665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -14087,37 +14087,37 @@
         <v>368.0</v>
       </c>
       <c r="B369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="C369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="D369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="E369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="F369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="G369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="I369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="J369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="K369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
       <c r="L369" t="n">
-        <v>0.928549999951</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="370">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>3.5089083331481663</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.34912499999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -16899,37 +16899,37 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="E443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="F443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="G443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="H443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="I443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="J443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="K443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
       <c r="L443" t="n">
-        <v>-0.28895833339666666</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="444">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -19103,37 +19103,37 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="C501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="D501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="E501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="F501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="G501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="H501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="I501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="J501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="K501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
       <c r="L501" t="n">
-        <v>3.527425000185166</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="502">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>8.283063153876</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>4.920000002133333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>3.5653026301200006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="C568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="D568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="E568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="F568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="G568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="H568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="I568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="J568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="K568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
       <c r="L568" t="n">
-        <v>10.7416381595775</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.28895833339666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>3.9501</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>0.628650000033</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
